--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111524610</v>
+        <v>111524816</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R2" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,12 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524816</v>
+        <v>111524610</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R4" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524767</v>
+        <v>111524610</v>
       </c>
       <c r="B3" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R3" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -880,6 +880,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524610</v>
+        <v>111524767</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R4" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -993,11 +998,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111524816</v>
+        <v>111524610</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R2" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524610</v>
+        <v>111524767</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R3" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -880,11 +885,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524767</v>
+        <v>111524816</v>
       </c>
       <c r="B4" t="n">
-        <v>103288</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111524610</v>
+        <v>111524767</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R2" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -767,11 +767,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524767</v>
+        <v>111524610</v>
       </c>
       <c r="B3" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -810,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R3" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -885,6 +880,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524610</v>
+        <v>111524816</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R3" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524816</v>
+        <v>111524610</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R4" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -987,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +992,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524816</v>
+        <v>111524610</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R3" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524610</v>
+        <v>111524816</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R4" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,12 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111524767</v>
+        <v>111524610</v>
       </c>
       <c r="B2" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R2" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -767,6 +767,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111524610</v>
+        <v>111524816</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R3" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På sälg</t>
+          <t>09:51</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524816</v>
+        <v>111524767</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +923,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -987,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111524610</v>
+        <v>111524767</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>103288</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>221144</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528710.775020241</v>
+        <v>528708.8236134996</v>
       </c>
       <c r="R2" t="n">
-        <v>6936101.088840622</v>
+        <v>6936113.065692388</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -767,11 +767,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På sälg</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111524767</v>
+        <v>111524610</v>
       </c>
       <c r="B4" t="n">
-        <v>103288</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -923,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528708.8236134996</v>
+        <v>528710.775020241</v>
       </c>
       <c r="R4" t="n">
-        <v>6936113.065692388</v>
+        <v>6936101.088840622</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -998,6 +993,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>På sälg</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 28274-2023.xlsx
+++ b/artfynd/A 28274-2023.xlsx
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>528534.0307014631</v>
+        <v>528534</v>
       </c>
       <c r="R5" t="n">
-        <v>6936240.719135519</v>
+        <v>6936241</v>
       </c>
       <c r="S5" t="n">
         <v>121</v>
@@ -1105,19 +1105,9 @@
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
